--- a/Exposiciones/S2M22019_Exposiciones.xlsx
+++ b/Exposiciones/S2M22019_Exposiciones.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Fecha de exposición</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>MEDINA SIGUENZA ANGGIE BRILLITTE</t>
+  </si>
+  <si>
+    <t>ROMO ESPINOZA HUGO ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -625,11 +628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N42"/>
+  <dimension ref="A2:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +642,7 @@
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,12 +651,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -671,7 +674,7 @@
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="1:14" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="25"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -705,7 +708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -738,7 +741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>1</v>
       </c>
@@ -760,7 +763,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
@@ -778,7 +781,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
     </row>
-    <row r="9" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="23" t="s">
         <v>21</v>
@@ -787,19 +790,36 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="21"/>
+      <c r="G9" s="17">
+        <v>9</v>
+      </c>
+      <c r="H9" s="19">
+        <v>10</v>
+      </c>
+      <c r="I9" s="19">
+        <v>8</v>
+      </c>
+      <c r="J9" s="19">
+        <v>3</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19">
+        <v>2</v>
+      </c>
+      <c r="M9" s="21">
+        <v>3</v>
+      </c>
       <c r="N9" s="21">
         <f>SUM(G9:M9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O9" s="22">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="23" t="s">
         <v>22</v>
@@ -808,16 +828,33 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <f>SUM(G10:M10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="B11" s="23" t="s">
         <v>23</v>
@@ -826,19 +863,36 @@
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="21"/>
+      <c r="G11" s="17">
+        <v>9</v>
+      </c>
+      <c r="H11" s="19">
+        <v>10</v>
+      </c>
+      <c r="I11" s="19">
+        <v>8</v>
+      </c>
+      <c r="J11" s="19">
+        <v>3</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3</v>
+      </c>
       <c r="N11" s="21">
         <f>SUM(G11:M11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="O11" s="22">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -854,7 +908,7 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -870,7 +924,7 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -886,7 +940,7 @@
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -908,7 +962,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
     </row>
-    <row r="16" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="19"/>
       <c r="C16" s="18" t="s">
@@ -1077,16 +1131,30 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="21"/>
+      <c r="G25" s="17">
+        <v>10</v>
+      </c>
+      <c r="H25" s="19">
+        <v>10</v>
+      </c>
+      <c r="I25" s="19">
+        <v>8</v>
+      </c>
+      <c r="J25" s="19">
+        <v>3</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="19">
+        <v>3</v>
+      </c>
+      <c r="M25" s="21">
+        <v>3</v>
+      </c>
       <c r="N25" s="21">
         <f>SUM(G25:M25)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -1098,14 +1166,31 @@
       <c r="D26" s="19"/>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="G26" s="17">
+        <v>10</v>
+      </c>
+      <c r="H26" s="19">
+        <v>10</v>
+      </c>
+      <c r="I26" s="19">
+        <v>8</v>
+      </c>
+      <c r="J26" s="19">
+        <v>3</v>
+      </c>
+      <c r="K26" s="19">
+        <v>2</v>
+      </c>
+      <c r="L26" s="19">
+        <v>3</v>
+      </c>
+      <c r="M26" s="21">
+        <v>3</v>
+      </c>
+      <c r="N26" s="21">
+        <f>SUM(G26:M26)</f>
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -1116,33 +1201,66 @@
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="21"/>
+      <c r="G27" s="17">
+        <v>10</v>
+      </c>
+      <c r="H27" s="19">
+        <v>10</v>
+      </c>
+      <c r="I27" s="19">
+        <v>8</v>
+      </c>
+      <c r="J27" s="19">
+        <v>3</v>
+      </c>
+      <c r="K27" s="19">
+        <v>2</v>
+      </c>
+      <c r="L27" s="19">
+        <v>3</v>
+      </c>
+      <c r="M27" s="21">
+        <v>3</v>
+      </c>
       <c r="N27" s="21">
         <f>SUM(G27:M27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <f>SUM(G28:M28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
@@ -1176,36 +1294,35 @@
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
     </row>
-    <row r="31" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+    <row r="31" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+    </row>
+    <row r="32" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33">
         <v>4</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B32" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20">
-        <v>43672</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-    </row>
-    <row r="32" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="C32" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="F32" s="20">
+        <v>43672</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1217,10 +1334,9 @@
     </row>
     <row r="33" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="22" t="s">
+      <c r="C33" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -1231,10 +1347,7 @@
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
       <c r="M33" s="21"/>
-      <c r="N33" s="21">
-        <f>SUM(G33:M33)</f>
-        <v>0</v>
-      </c>
+      <c r="N33" s="21"/>
     </row>
     <row r="34" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
@@ -1253,25 +1366,30 @@
       <c r="L34" s="19"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21">
-        <f t="shared" ref="N34" si="1">SUM(G34:M34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
+        <f>SUM(G34:M34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21">
+        <f t="shared" ref="N35" si="1">SUM(G35:M35)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
@@ -1305,36 +1423,35 @@
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
     </row>
-    <row r="38" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+    <row r="38" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+    </row>
+    <row r="39" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
         <v>5</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B39" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20">
-        <v>43676</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-    </row>
-    <row r="39" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
-      <c r="C39" s="18" t="s">
-        <v>15</v>
-      </c>
+      <c r="C39" s="19"/>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="F39" s="20">
+        <v>43676</v>
+      </c>
       <c r="G39" s="17"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1346,10 +1463,9 @@
     </row>
     <row r="40" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
@@ -1360,42 +1476,60 @@
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="21">
-        <f>SUM(G40:M40)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-    </row>
-    <row r="42" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="N40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21">
+        <f>SUM(G41:M41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
